--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/7.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/7.xlsx
@@ -479,13 +479,13 @@
         <v>-15.45086567745568</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.922682038835084</v>
+        <v>-9.250513301991905</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.915553818268754</v>
+        <v>-2.941214731838537</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.46486084300397</v>
+        <v>-5.868300155071759</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.30673007916758</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.196586106586835</v>
+        <v>-9.531552674792396</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.956414895437781</v>
+        <v>-2.939617470891846</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.394070761538758</v>
+        <v>-5.816821220298092</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.11725760675802</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.01984320157741</v>
+        <v>-10.35799119937351</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.827730650806455</v>
+        <v>-2.784355851491817</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.260935133941245</v>
+        <v>-5.694617665573421</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.89412219385335</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.78943494721975</v>
+        <v>-11.1059151838128</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.749360125995883</v>
+        <v>-2.722062674570884</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.483334082313646</v>
+        <v>-5.923169996281433</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.63552760994569</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.58002674662022</v>
+        <v>-11.9272346179828</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.597685797574486</v>
+        <v>-2.555201274853085</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.030589157743917</v>
+        <v>-5.45530346192951</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.35148196476719</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.26413884700894</v>
+        <v>-12.61773576215827</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.581202588296753</v>
+        <v>-2.519118888221288</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.13452895000438</v>
+        <v>-5.551034380308211</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.04952400502916</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.78595876137161</v>
+        <v>-13.16067356100465</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.456720972877622</v>
+        <v>-2.40824017545471</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.679571426254399</v>
+        <v>-5.077511971128663</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.73666567779757</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.74984028118517</v>
+        <v>-14.14445538113763</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.201499621281014</v>
+        <v>-2.182227751497993</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.575107941880266</v>
+        <v>-4.922040874883166</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.41975112939939</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.50882726152571</v>
+        <v>-14.90790683674721</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.184964042791914</v>
+        <v>-2.161921589790476</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.171105660790284</v>
+        <v>-4.527294851902283</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.11083733988464</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.1793757361704</v>
+        <v>-15.58125706420002</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.020852026670878</v>
+        <v>-1.970800152906959</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.956365709580293</v>
+        <v>-4.294160215199667</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.82787501874886</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.82858375718307</v>
+        <v>-16.23735163650744</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.041406942132387</v>
+        <v>-2.026494809195662</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.445464775787616</v>
+        <v>-3.769761117177171</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.59069857587871</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.79438984551436</v>
+        <v>-17.21165462938301</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.853309827205309</v>
+        <v>-1.828617744045814</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.807267381464837</v>
+        <v>-3.12813353950986</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.42539212561713</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.41280477024329</v>
+        <v>-17.81568111328888</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.596582860781903</v>
+        <v>-1.566706225697084</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.442384901265932</v>
+        <v>-2.795706878055593</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.34196728974659</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.30954896108447</v>
+        <v>-18.72219216205</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.449739592109103</v>
+        <v>-1.425126062766658</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.875422726704985</v>
+        <v>-2.217943553650222</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.3315494328614</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.20494464473296</v>
+        <v>-19.62099184443733</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.291375096935585</v>
+        <v>-1.261171154279723</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.467453477853959</v>
+        <v>-1.814320949342649</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.36901613256102</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.99785378173642</v>
+        <v>-20.42029002522755</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.060976751526889</v>
+        <v>-1.049822109505739</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9546148832407066</v>
+        <v>-1.306117029935368</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.42077314739658</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.95847531814238</v>
+        <v>-21.37769085513445</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9771336441284755</v>
+        <v>-0.9660444636215335</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5867604502967293</v>
+        <v>-0.9405799345943763</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.45319100036672</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.79414391622692</v>
+        <v>-22.21392242224118</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8278290225214314</v>
+        <v>-0.8413926482654596</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2142451575410975</v>
+        <v>-0.5719792403884205</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.43881313797606</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.43378146386229</v>
+        <v>-22.87144405555835</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5785777610206505</v>
+        <v>-0.6057704740229155</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1582308583060092</v>
+        <v>-0.2182644945135074</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.36669031621149</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.05905675528028</v>
+        <v>-23.4909325491203</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2836343626022456</v>
+        <v>-0.3201749798335031</v>
       </c>
       <c r="G21" t="n">
-        <v>0.497242948089664</v>
+        <v>0.1323473755879167</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.2317386132152</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.69718868808885</v>
+        <v>-24.14709258294193</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06065935290480896</v>
+        <v>-0.1281632663567486</v>
       </c>
       <c r="G22" t="n">
-        <v>0.521044754655922</v>
+        <v>0.2330140921379485</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.03489527865674</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.1754505108971</v>
+        <v>-24.59538612454547</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03858030263547464</v>
+        <v>-0.05133763328149999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.78142447357217</v>
+        <v>0.4666986055599171</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.78352498650412</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.54649946573446</v>
+        <v>-24.98972628613826</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01337761966515196</v>
+        <v>-0.08402911347728999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7307834461803736</v>
+        <v>0.4628625608272913</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.49135228904799</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.8303144067374</v>
+        <v>-25.26306738486781</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3036470659690606</v>
+        <v>0.2132185302412587</v>
       </c>
       <c r="G25" t="n">
-        <v>0.707439870213576</v>
+        <v>0.4433026603817526</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.17444533967903</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.83578698932524</v>
+        <v>-25.26545018398501</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3102979558126575</v>
+        <v>0.2062534251294604</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5643802770620353</v>
+        <v>0.2991433137915068</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.85044919763272</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.78959734489963</v>
+        <v>-25.23226119628123</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1191765189291403</v>
+        <v>0.009751051777993841</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5470853450081151</v>
+        <v>0.3011071592177658</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.53659900208179</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.88289309494977</v>
+        <v>-25.3100032905554</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2628776349199257</v>
+        <v>0.1790476198243536</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2456743489858976</v>
+        <v>0.007708652534684574</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.24391597593134</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.92603223281326</v>
+        <v>-25.36887937643464</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2336032457658262</v>
+        <v>0.1327008677646433</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1398623574190675</v>
+        <v>-0.07728657751380107</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.978073121912987</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.71494503409611</v>
+        <v>-25.15012008825224</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08543765450601225</v>
+        <v>0.008860775184756468</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.04994984918027703</v>
+        <v>-0.2531423892838656</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.73920927679611</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.24702613053282</v>
+        <v>-24.68834147472172</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09214091356097599</v>
+        <v>0.007761021746051479</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5437653277645009</v>
+        <v>-0.759500293990463</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.524006482224406</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.29466902057386</v>
+        <v>-24.7395716557414</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1445624941392472</v>
+        <v>0.06543261576385481</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6582444238125537</v>
+        <v>-0.8900960148366805</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.32434933424317</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.89862685961165</v>
+        <v>-24.34176203389555</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07605047336849464</v>
+        <v>0.008494190705188139</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.155450808832785</v>
+        <v>-1.395039950836372</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.13433731537558</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.3159146447321</v>
+        <v>-23.7368321810936</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0536026016731186</v>
+        <v>-0.08158085284588722</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.23270848790181</v>
+        <v>-1.457673527631189</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.947577482972658</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.95854714636435</v>
+        <v>-23.3806429899816</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2507595901666715</v>
+        <v>-0.2718512900446922</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.296179972078498</v>
+        <v>-1.560408828030214</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.759106063805554</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.22639938684934</v>
+        <v>-22.62787485349087</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3653696092431415</v>
+        <v>-0.3833715256505148</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.493913021897087</v>
+        <v>-1.742182360684738</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.567508046998906</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.4285675439774</v>
+        <v>-21.83423254752828</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3042023703665973</v>
+        <v>-0.3228458096132152</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.616234407347333</v>
+        <v>-1.888279368095559</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.375193135540835</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.05424551342961</v>
+        <v>-21.44634689123646</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3815386032526731</v>
+        <v>-0.395023675179651</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.871769974212143</v>
+        <v>-2.153346131429145</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.187364352031977</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.39980057128025</v>
+        <v>-20.79733525476642</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.228607413758471</v>
+        <v>-0.285480377302929</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.032242330143179</v>
+        <v>-2.328285482000289</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.007495646087822</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.06153474275857</v>
+        <v>-20.43196835936237</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4949310381648626</v>
+        <v>-0.514320738673459</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.250805233782954</v>
+        <v>-2.547241154725316</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.841166037501792</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.51984071268216</v>
+        <v>-19.86156290915405</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.213786926941637</v>
+        <v>-0.2670202302960952</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.102993134699867</v>
+        <v>-2.429803198235033</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.688750018265611</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.94923887793121</v>
+        <v>-19.30620051491087</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02199235493500772</v>
+        <v>-0.03025902570632102</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.133668400258031</v>
+        <v>-2.494230420519167</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.548573564772234</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.05643547024538</v>
+        <v>-18.40584284848537</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03141881298105048</v>
+        <v>-0.009075679708408245</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.038356435570265</v>
+        <v>-2.430510182588487</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.416766856223927</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.71463471995644</v>
+        <v>-18.07443738665276</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06490892365018577</v>
+        <v>0.02543563058238167</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.227854426901409</v>
+        <v>-2.63518215291319</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.288878247017485</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.17521875057448</v>
+        <v>-17.52348709846724</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03724488774561859</v>
+        <v>0.002707392849145217</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.283261052527593</v>
+        <v>-2.694699761631677</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.162882821528375</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.75661855181598</v>
+        <v>-17.07502335692676</v>
       </c>
       <c r="F46" t="n">
-        <v>0.079140256839142</v>
+        <v>0.07026367551245173</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.206448511755186</v>
+        <v>-2.583179526025854</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.040416388134749</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.12486257049133</v>
+        <v>-16.42338016758552</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09407857438155144</v>
+        <v>0.04601673064957505</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.529186869106576</v>
+        <v>-2.930099366725911</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.931189672351578</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.46465701509161</v>
+        <v>-15.76598945729677</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08279300933198358</v>
+        <v>0.07000182945561721</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.452832558933629</v>
+        <v>-2.835376555666023</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.845120984830785</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.9106038511326</v>
+        <v>-15.17539567610651</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2084791166125538</v>
+        <v>0.168469039128239</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.669916032352289</v>
+        <v>-3.089773092183603</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.79098346440114</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.23077293377313</v>
+        <v>-14.49314268272132</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3519707557578715</v>
+        <v>0.2869281952401764</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.629578647296931</v>
+        <v>-3.051412644857345</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.775186885348162</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.43540244383543</v>
+        <v>-13.68037252230697</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3449140045261812</v>
+        <v>0.2980959295641687</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.707124357028475</v>
+        <v>-3.167489001852088</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.801806255388316</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.8292550068692</v>
+        <v>-13.07964529871721</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4274740662461058</v>
+        <v>0.3720543483170793</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.701795789771892</v>
+        <v>-3.136355505694464</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.871328989166742</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.19824528680653</v>
+        <v>-12.43975899732785</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4805240773607798</v>
+        <v>0.4318992646066092</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.73765560725538</v>
+        <v>-3.182532057817232</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.983489030837736</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.81769132010608</v>
+        <v>-12.06067136854567</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3795300532397049</v>
+        <v>0.3286795490024408</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.851781211126706</v>
+        <v>-3.328995649707621</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.137368165001044</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.33115516190185</v>
+        <v>-11.54084148421494</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1303704378588161</v>
+        <v>0.1130362288963708</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.334861001380714</v>
+        <v>-3.788195079578321</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.328913237645118</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.92004376036881</v>
+        <v>-11.12557982268107</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2059915790726259</v>
+        <v>0.1495768461276283</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.414606217989668</v>
+        <v>-3.883022629060943</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.553337445999611</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.15521761296086</v>
+        <v>-10.36248185924823</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1595269962873401</v>
+        <v>0.1035312170332777</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.778912636863538</v>
+        <v>-4.270764270021503</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.805886469043892</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.855744277759218</v>
+        <v>-10.08218874770971</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.01314738589218505</v>
+        <v>-0.06453467454595987</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.801523043871198</v>
+        <v>-4.293544876966106</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.082167653616631</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.283702289695681</v>
+        <v>-9.490154813206859</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06192387860227222</v>
+        <v>-0.0005787751641280266</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.086529384432733</v>
+        <v>-4.58355247721318</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.376117387215304</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.946235091647349</v>
+        <v>-9.152465046010217</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.06662944300063604</v>
+        <v>-0.115476824903116</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.006260475710111</v>
+        <v>-4.489602112020954</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.68531414628985</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.410105290278667</v>
+        <v>-8.609762908614989</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.09109895701182207</v>
+        <v>-0.1407187847819639</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.407186065632288</v>
+        <v>-4.87405758496824</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.006006811299519</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.924184470308004</v>
+        <v>-8.12516441123134</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.05095795649908993</v>
+        <v>-0.1025678143011741</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.381669167393764</v>
+        <v>-4.880093136578275</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.333248212050087</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.454210075198563</v>
+        <v>-7.672537317387187</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.07004653404232654</v>
+        <v>-0.1130547488773967</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.377649830421354</v>
+        <v>-4.861371143514607</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.661866396536485</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.120670568002749</v>
+        <v>-7.328301398769684</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2352321189963844</v>
+        <v>-0.2732783510544403</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.592442150842712</v>
+        <v>-5.056171517496649</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.986944374791332</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.740731939535859</v>
+        <v>-6.960577888854123</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1853242605637246</v>
+        <v>-0.220097416911349</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.86048086692137</v>
+        <v>-5.3153598368543</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.30352965704772</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.490970078224251</v>
+        <v>-6.712832242180141</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2924978516260942</v>
+        <v>-0.3298763762392221</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.837962106033601</v>
+        <v>-5.286766247447971</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.60255975444392</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.33979325731084</v>
+        <v>-6.555881715713529</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.361520472207674</v>
+        <v>-0.4127244686216647</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.933732301320827</v>
+        <v>-5.376710367970628</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.87794116411722</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.064331205520923</v>
+        <v>-6.283771293451094</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3230552864586828</v>
+        <v>-0.3635105022396163</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.94095925248946</v>
+        <v>-5.370871200903219</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.1212797026252</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.927961779121505</v>
+        <v>-6.154000387683905</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5774910998847872</v>
+        <v>-0.6404912611591731</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.013320410295679</v>
+        <v>-5.416524060912318</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.32773651768114</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.72775428406583</v>
+        <v>-5.964567857866971</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5289448409476669</v>
+        <v>-0.5693215029115501</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.856278237709176</v>
+        <v>-5.256483750975058</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.49616354596964</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.611717203979611</v>
+        <v>-5.86375712598568</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6040553823506494</v>
+        <v>-0.6389856463323745</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.816058683379393</v>
+        <v>-5.187709884147471</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.62781267192903</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.619886800952848</v>
+        <v>-5.876993444158665</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.714960279722911</v>
+        <v>-0.7629435696378369</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.694431189979758</v>
+        <v>-5.037855385821074</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.72419293459507</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.666979814274537</v>
+        <v>-5.926796564168591</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.748319467363629</v>
+        <v>-0.8032678623903533</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.493608356690522</v>
+        <v>-4.846445918275039</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.78644994730418</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.905469202839419</v>
+        <v>-6.150674942762107</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6383964927044969</v>
+        <v>-0.6845730448272648</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.359006391174736</v>
+        <v>-4.703530340454757</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.81766691064704</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.115076971335454</v>
+        <v>-6.349691038259185</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9808649504383674</v>
+        <v>-1.020809566408474</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.189015931077765</v>
+        <v>-4.534901479853326</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.81590846666962</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.609533972758922</v>
+        <v>-6.824666693054165</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9030835792556728</v>
+        <v>-0.9528474223570736</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.019444424671729</v>
+        <v>-4.343622935335708</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.77719288718024</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.065447234616349</v>
+        <v>-7.268561220902887</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9624440803400588</v>
+        <v>-1.011461662179481</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.94003960793666</v>
+        <v>-4.262647042259633</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.69698622055476</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.645540988927547</v>
+        <v>-7.862074585626855</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.022629396503474</v>
+        <v>-1.068531010266565</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.566555484770741</v>
+        <v>-3.895748347423101</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.57195910637278</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.067296432670911</v>
+        <v>-8.282180399212161</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9882228246354174</v>
+        <v>-1.053422492787213</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.378838046626072</v>
+        <v>-3.732160023415734</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.39925282842909</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.538580058064525</v>
+        <v>-8.745778842837682</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.191258257104905</v>
+        <v>-1.216146724807027</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.009569644975189</v>
+        <v>-3.364423421197332</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.18204399833663</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.454255718814846</v>
+        <v>-9.637705066233112</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.113437609013685</v>
+        <v>-1.173740755902676</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.001884463207095</v>
+        <v>-3.363218929335893</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.92918633162634</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.24843480919395</v>
+        <v>-10.41329308657696</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.203421006444869</v>
+        <v>-1.255672387086198</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.810383349541168</v>
+        <v>-3.163299464942736</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.65285909155362</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.06978042796963</v>
+        <v>-11.21798529613797</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.312872658201699</v>
+        <v>-1.379289910517775</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.451274574895464</v>
+        <v>-2.817859054463794</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.36814806097527</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.27304161294131</v>
+        <v>-12.40782687069688</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.394110397334609</v>
+        <v>-1.452921021699642</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.317026101556405</v>
+        <v>-2.667768894686246</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.08978990603213</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.1516529643467</v>
+        <v>-13.2879831138376</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.4802053808218</v>
+        <v>-1.529903762408992</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.981378733603073</v>
+        <v>-2.335918294557016</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.830108919318695</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32383302237212</v>
+        <v>-14.44099604050273</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.665762588997583</v>
+        <v>-1.709176665220747</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.733030840998372</v>
+        <v>-2.076402667628321</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.594709704203085</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.40261259192467</v>
+        <v>-15.50479801560434</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.717136785348516</v>
+        <v>-1.752093233935925</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.321814701042598</v>
+        <v>-1.660551852466576</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.389420492276351</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.78623334084396</v>
+        <v>-16.89457214685925</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.703245852033445</v>
+        <v>-1.722242783456789</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.003148049874985</v>
+        <v>-1.356430749756121</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.214594576590503</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.45390469221735</v>
+        <v>-18.5372895690163</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.94418350122973</v>
+        <v>-1.954395497446276</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8030191086363605</v>
+        <v>-1.166422158614151</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.068353232396049</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.0420272115244</v>
+        <v>-20.11386467721695</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.154040023479757</v>
+        <v>-2.168088064428929</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5038338040972363</v>
+        <v>-0.8755766509852063</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.949310733057089</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.85106924898274</v>
+        <v>-21.87536856305698</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.345920813928094</v>
+        <v>-2.350084166231763</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6476920277221224</v>
+        <v>-1.015533368363258</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.858233508091518</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.54611660559818</v>
+        <v>-23.54432296010886</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.439700979183378</v>
+        <v>-2.445278300193953</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.461938435003713</v>
+        <v>-0.8158102885127269</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.800131885771863</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.62404835881988</v>
+        <v>-25.63224414039881</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.604127210572616</v>
+        <v>-2.592540522557688</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4585998977790728</v>
+        <v>-0.8016444168379793</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.781696513358453</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.85259396393281</v>
+        <v>-27.84852225774904</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.479409933702333</v>
+        <v>-2.455555757924708</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5846133126306862</v>
+        <v>-0.9163984512457082</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.814561731175599</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.13721390211686</v>
+        <v>-30.12380738400693</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.957161156699759</v>
+        <v>-2.925268306977314</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9418237033643403</v>
+        <v>-1.266499721536305</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.904525708996989</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.3270455677268</v>
+        <v>-32.33119582772763</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.025372054505152</v>
+        <v>-2.971785258973967</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.186086797482423</v>
+        <v>-1.514232275907446</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.045663406223362</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.54869152924213</v>
+        <v>-34.55645526482728</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.378576200569238</v>
+        <v>-3.297246815316436</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.38994704503094</v>
+        <v>-1.703651713421539</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.231642590187843</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.06673413479131</v>
+        <v>-37.07240310192178</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.644690348130162</v>
+        <v>-3.552599089941461</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.803703091738009</v>
+        <v>-2.125721372433103</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.439550170750369</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.58761777005714</v>
+        <v>-39.5686208386338</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.577736311397575</v>
+        <v>-3.491850804755852</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.263530952145112</v>
+        <v>-2.583048602997437</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.660386204301451</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.15343418867577</v>
+        <v>-42.13158313523293</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.752374539003359</v>
+        <v>-3.667065093686672</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.605580456188047</v>
+        <v>-2.899332455047855</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.857881753826314</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.44106535651341</v>
+        <v>-44.42619250048521</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.006561598675471</v>
+        <v>-3.90393103669918</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.182178565640505</v>
+        <v>-3.456305202540566</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.04685020448133</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.78021473603324</v>
+        <v>-46.75862552864724</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.155866220282515</v>
+        <v>-4.049216321333814</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.499601448038153</v>
+        <v>-3.766527318375265</v>
       </c>
     </row>
   </sheetData>
